--- a/A2_results_step1.2.xlsx
+++ b/A2_results_step1.2.xlsx
@@ -1008,7 +1008,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>150.0</v>
+        <v>121.50000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1058,7 +1058,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>150.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -3534,604 +3534,604 @@
     </row>
     <row r="5" spans="1:200">
       <c r="A5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="B5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="C5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="D5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="E5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="F5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="G5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="H5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="I5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="J5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="K5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="L5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="M5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="N5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="O5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="P5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="Q5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="R5">
-        <v>-69.0</v>
+        <v>-40.500000000000014</v>
       </c>
       <c r="S5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="T5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="U5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="V5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="W5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="X5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="Y5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="Z5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AA5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AB5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AC5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AD5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AE5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AF5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AG5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AH5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AI5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AJ5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AK5">
-        <v>-28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AL5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AM5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AN5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AO5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AP5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AQ5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AR5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AS5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AT5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AU5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AV5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AW5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AX5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AY5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="AZ5">
-        <v>-57.0</v>
+        <v>-28.500000000000014</v>
       </c>
       <c r="BA5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BB5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BC5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BD5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BE5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BF5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BG5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BH5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BI5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BJ5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BK5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BL5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BM5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BN5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BO5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BP5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BQ5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BR5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BS5">
-        <v>-106.5</v>
+        <v>-78.00000000000001</v>
       </c>
       <c r="BT5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="BU5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="BV5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="BW5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="BX5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="BY5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="BZ5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CA5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CB5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CC5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CD5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CE5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CF5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CG5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CH5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CI5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CJ5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CK5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CL5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CM5">
-        <v>-136.5</v>
+        <v>-108.00000000000001</v>
       </c>
       <c r="CN5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CO5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CP5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CQ5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CR5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CS5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CT5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CU5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CV5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CW5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CX5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CY5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="CZ5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DA5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DB5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DC5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DD5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DE5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DF5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DG5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DH5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DI5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DJ5">
-        <v>-142.5</v>
+        <v>-114.00000000000001</v>
       </c>
       <c r="DK5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DL5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DM5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DN5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DO5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DP5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DQ5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DR5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DS5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DT5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DU5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DV5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DW5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DX5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DY5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="DZ5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="EA5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="EB5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="EC5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="ED5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="EE5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="EF5">
-        <v>-144.0</v>
+        <v>-115.50000000000001</v>
       </c>
       <c r="EG5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EH5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EI5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EJ5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EK5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EL5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EM5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EN5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EO5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EP5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EQ5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="ER5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="ES5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="ET5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EU5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EV5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EW5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EX5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EY5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="EZ5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="FA5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="FB5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="FC5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="FD5">
-        <v>-99.0</v>
+        <v>-70.5</v>
       </c>
       <c r="FE5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FF5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FG5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FH5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FI5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FJ5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FK5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FL5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FM5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FN5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FO5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FP5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FQ5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FR5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FS5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FT5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FU5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FV5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FW5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FX5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FY5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="FZ5">
-        <v>-121.5</v>
+        <v>-93.00000000000001</v>
       </c>
       <c r="GA5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GB5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GC5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GD5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GE5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GF5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GG5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GH5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GI5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GJ5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GK5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GL5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GM5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GN5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GO5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GP5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GQ5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
       <c r="GR5">
-        <v>-55.5</v>
+        <v>-27.000000000000014</v>
       </c>
     </row>
     <row r="6" spans="1:200">
@@ -9554,604 +9554,604 @@
     </row>
     <row r="15" spans="1:200">
       <c r="A15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="B15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="C15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="D15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="E15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="F15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="G15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="H15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="I15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="J15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="K15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="L15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="M15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="N15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="O15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="P15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="Q15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="R15">
-        <v>-114.0</v>
+        <v>-57.0</v>
       </c>
       <c r="S15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="W15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="X15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK15">
-        <v>-57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AM15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AN15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AO15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AP15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AQ15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AR15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AS15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AT15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AU15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AV15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AW15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AX15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AY15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="AZ15">
-        <v>-118.5</v>
+        <v>-61.5</v>
       </c>
       <c r="BA15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BB15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BC15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BD15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BE15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BF15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BG15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BH15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BI15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BJ15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BK15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BL15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BM15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BN15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BO15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BP15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BQ15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BR15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BS15">
-        <v>-123.0</v>
+        <v>-66.0</v>
       </c>
       <c r="BT15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="BU15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="BV15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="BW15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="BX15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="BY15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="BZ15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CA15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CB15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CC15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CD15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CE15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CF15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CG15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CH15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CI15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CJ15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CK15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CL15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CM15">
-        <v>-144.0</v>
+        <v>-87.0</v>
       </c>
       <c r="CN15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CO15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CP15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CQ15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CR15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CS15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CT15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CU15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CV15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CW15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CX15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CY15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="CZ15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DA15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DB15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DC15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DD15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DE15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DF15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DG15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DH15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DI15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DJ15">
-        <v>-148.5</v>
+        <v>-91.5</v>
       </c>
       <c r="DK15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DL15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DM15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DN15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DO15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DP15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DQ15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DR15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DS15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DT15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DU15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DV15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DW15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DX15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DY15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="DZ15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="EA15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="EB15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="EC15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="ED15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="EE15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="EF15">
-        <v>-141.0</v>
+        <v>-84.0</v>
       </c>
       <c r="EG15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EH15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EI15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EJ15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EK15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EL15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EM15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EN15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EO15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EP15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EQ15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="ER15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="ES15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="ET15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EU15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EV15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EW15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EX15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EY15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="EZ15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="FA15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="FB15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="FC15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="FD15">
-        <v>-111.0</v>
+        <v>-54.0</v>
       </c>
       <c r="FE15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FF15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FG15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FH15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FI15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FJ15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FK15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FL15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FM15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FN15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FO15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FP15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FQ15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FR15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FS15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FT15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FU15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FV15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FW15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FX15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FY15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="FZ15">
-        <v>-106.5</v>
+        <v>-49.5</v>
       </c>
       <c r="GA15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GB15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GC15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GD15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GE15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GF15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GG15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GH15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GI15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GJ15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GK15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GL15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GM15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GN15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GO15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GP15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GQ15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
       <c r="GR15">
-        <v>-90.0</v>
+        <v>-33.0</v>
       </c>
     </row>
     <row r="16" spans="1:200">
@@ -33660,604 +33660,604 @@
     </row>
     <row r="5" spans="1:200">
       <c r="A5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="B5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="C5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="D5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="E5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="F5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="G5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="H5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="I5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="J5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="K5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="L5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="M5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="N5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="O5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="P5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="Q5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="R5">
-        <v>69.0</v>
+        <v>40.500000000000014</v>
       </c>
       <c r="S5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="T5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="U5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="V5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="W5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="X5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="Y5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="Z5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AA5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AB5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AC5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AD5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AE5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AF5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AG5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AH5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AI5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AJ5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AK5">
-        <v>28.499999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AL5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AM5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AN5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AO5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AP5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AQ5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AR5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AS5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AT5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AU5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AV5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AW5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AX5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AY5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="AZ5">
-        <v>57.0</v>
+        <v>28.500000000000014</v>
       </c>
       <c r="BA5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BB5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BC5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BD5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BE5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BF5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BG5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BH5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BI5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BJ5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BK5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BL5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BM5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BN5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BO5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BP5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BQ5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BR5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BS5">
-        <v>106.5</v>
+        <v>78.00000000000001</v>
       </c>
       <c r="BT5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="BU5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="BV5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="BW5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="BX5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="BY5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="BZ5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CA5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CB5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CC5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CD5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CE5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CF5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CG5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CH5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CI5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CJ5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CK5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CL5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CM5">
-        <v>136.5</v>
+        <v>108.00000000000001</v>
       </c>
       <c r="CN5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CO5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CP5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CQ5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CR5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CS5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CT5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CU5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CV5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CW5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CX5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CY5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="CZ5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DA5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DB5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DC5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DD5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DE5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DF5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DG5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DH5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DI5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DJ5">
-        <v>142.5</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="DK5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DL5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DM5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DN5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DO5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DP5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DQ5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DR5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DS5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DT5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DU5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DV5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DW5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DX5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DY5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="DZ5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="EA5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="EB5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="EC5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="ED5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="EE5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="EF5">
-        <v>144.0</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="EG5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EH5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EI5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EJ5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EK5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EL5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EM5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EN5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EO5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EP5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EQ5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="ER5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="ES5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="ET5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EU5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EV5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EW5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EX5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EY5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="EZ5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="FA5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="FB5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="FC5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="FD5">
-        <v>99.0</v>
+        <v>70.5</v>
       </c>
       <c r="FE5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FF5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FG5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FH5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FI5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FJ5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FK5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FL5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FM5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FN5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FO5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FP5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FQ5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FR5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FS5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FT5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FU5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FV5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FW5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FX5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FY5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="FZ5">
-        <v>121.5</v>
+        <v>93.00000000000001</v>
       </c>
       <c r="GA5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GB5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GC5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GD5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GE5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GF5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GG5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GH5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GI5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GJ5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GK5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GL5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GM5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GN5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GO5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GP5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GQ5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
       <c r="GR5">
-        <v>55.5</v>
+        <v>27.000000000000014</v>
       </c>
     </row>
     <row r="6" spans="1:200">
@@ -39680,604 +39680,604 @@
     </row>
     <row r="15" spans="1:200">
       <c r="A15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="B15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="C15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="D15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="E15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="F15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="G15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="H15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="I15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="J15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="K15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="L15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="M15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="N15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="O15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="P15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="Q15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="R15">
-        <v>114.0</v>
+        <v>57.0</v>
       </c>
       <c r="S15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="W15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="X15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK15">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AM15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AN15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AO15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AP15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AQ15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AR15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AS15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AT15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AU15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AV15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AW15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AX15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AY15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="AZ15">
-        <v>118.5</v>
+        <v>61.5</v>
       </c>
       <c r="BA15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BB15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BC15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BD15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BE15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BF15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BG15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BH15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BI15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BJ15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BK15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BL15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BM15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BN15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BO15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BP15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BQ15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BR15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BS15">
-        <v>123.0</v>
+        <v>66.0</v>
       </c>
       <c r="BT15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="BU15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="BV15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="BW15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="BX15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="BY15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="BZ15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CA15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CB15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CC15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CD15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CE15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CF15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CG15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CH15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CI15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CJ15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CK15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CL15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CM15">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="CN15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CO15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CP15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CQ15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CR15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CS15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CT15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CU15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CV15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CW15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CX15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CY15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="CZ15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DA15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DB15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DC15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DD15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DE15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DF15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DG15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DH15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DI15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DJ15">
-        <v>148.5</v>
+        <v>91.5</v>
       </c>
       <c r="DK15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DL15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DM15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DN15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DO15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DP15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DQ15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DR15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DS15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DT15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DU15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DV15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DW15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DX15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DY15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="DZ15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="EA15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="EB15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="EC15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="ED15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="EE15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="EF15">
-        <v>141.0</v>
+        <v>84.0</v>
       </c>
       <c r="EG15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EH15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EI15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EJ15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EK15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EL15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EM15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EN15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EO15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EP15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EQ15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="ER15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="ES15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="ET15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EU15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EV15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EW15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EX15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EY15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="EZ15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="FA15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="FB15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="FC15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="FD15">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="FE15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FF15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FG15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FH15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FI15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FJ15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FK15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FL15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FM15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FN15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FO15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FP15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FQ15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FR15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FS15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FT15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FU15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FV15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FW15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FX15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FY15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="FZ15">
-        <v>106.5</v>
+        <v>49.5</v>
       </c>
       <c r="GA15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GB15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GC15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GD15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GE15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GF15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GG15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GH15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GI15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GJ15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GK15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GL15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GM15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GN15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GO15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GP15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GQ15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
       <c r="GR15">
-        <v>90.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="16" spans="1:200">
@@ -46330,7 +46330,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>657599.6670000001</v>
+        <v>657599.667</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -46340,7 +46340,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>478724.5995</v>
+        <v>478724.5994999999</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -46405,7 +46405,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1.7156263739999998e6</v>
+        <v>1.7156263739999996e6</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -46550,7 +46550,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>767426.8454999999</v>
+        <v>767426.8455</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -46585,7 +46585,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>380385.2130000001</v>
+        <v>380385.21300000005</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -46675,7 +46675,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>102376.06800000001</v>
+        <v>102376.068</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -46685,7 +46685,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>97319.07450000002</v>
+        <v>97319.0745</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -46710,7 +46710,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>166879.32599999997</v>
+        <v>166879.326</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -46720,7 +46720,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>176502.03449999998</v>
+        <v>176502.0345</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -46735,7 +46735,7 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>157258.30800000002</v>
+        <v>157258.30799999996</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -46775,7 +46775,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>41462.204999999994</v>
+        <v>41462.20499999998</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -46785,7 +46785,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>63975.24900000001</v>
+        <v>63975.248999999996</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -46795,7 +46795,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>56868.975</v>
+        <v>56868.974999999984</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -46830,7 +46830,7 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>39991.311</v>
+        <v>39991.31100000001</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -46845,7 +46845,7 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>75548.499</v>
+        <v>75548.49900000003</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -46860,7 +46860,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>55484.297999999995</v>
+        <v>55484.29800000001</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -46875,7 +46875,7 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>117333.84300000002</v>
+        <v>117333.84300000005</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -46885,7 +46885,7 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>167938.746</v>
+        <v>167938.74599999998</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -46905,7 +46905,7 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>147257.90550000002</v>
+        <v>147257.90550000005</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -46955,7 +46955,7 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>286321.6920000001</v>
+        <v>286321.69200000004</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -47030,7 +47030,7 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>456045.9284999999</v>
+        <v>456045.9285</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -47060,7 +47060,7 @@
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>736191.3465</v>
+        <v>736191.3465000001</v>
       </c>
     </row>
     <row r="151" spans="1:1">
@@ -47090,7 +47090,7 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>591586.701</v>
+        <v>591586.7010000001</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -47260,7 +47260,7 @@
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>281422.8</v>
+        <v>281422.80000000005</v>
       </c>
     </row>
     <row r="191" spans="1:1">
